--- a/data/trans_orig/IP16B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B10-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA85FC82-62A0-4F55-BA53-92F0DA8932D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD928239-2013-4457-85B9-881D5DB1535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38EB7EED-F10B-4EF8-BCF5-4EFF57813455}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BF0D150C-C434-49E6-BD56-1D4D7D4E2F9F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -154,31 +154,31 @@
     <t>81,31%</t>
   </si>
   <si>
-    <t>23,72%</t>
+    <t>28,35%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>45,44%</t>
+    <t>38,32%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>76,28%</t>
+    <t>71,65%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>54,56%</t>
+    <t>61,68%</t>
   </si>
   <si>
     <t>84,07%</t>
   </si>
   <si>
-    <t>32,55%</t>
+    <t>33,33%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -187,13 +187,13 @@
     <t>91,18%</t>
   </si>
   <si>
-    <t>62,12%</t>
+    <t>60,98%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>67,45%</t>
+    <t>66,67%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -202,10 +202,10 @@
     <t>8,82%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2015 (Tasa respuesta: 0,28%)</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2016 (Tasa respuesta: 0,28%)</t>
   </si>
   <si>
     <t>52,94%</t>
@@ -220,7 +220,7 @@
     <t>84,59%</t>
   </si>
   <si>
-    <t>33,05%</t>
+    <t>24,61%</t>
   </si>
   <si>
     <t>33,44%</t>
@@ -229,7 +229,7 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>66,95%</t>
+    <t>75,39%</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA8EE6C-DBDC-40DE-BEE3-8BE0EA636BBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC05E93-D8A1-4A03-8FF3-DE24DE0A4F97}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1386,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55A45E6-6895-4BD1-B236-0A496352B2BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27712EFF-F091-4CAD-885D-7E1B557D72C5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2125,7 +2125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7617D5-9C25-405D-AED0-623CACFD91CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B997011-1C2D-42D8-BE79-3F8D6486050F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B10-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD928239-2013-4457-85B9-881D5DB1535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41525F31-5F11-44C0-9A7E-1333DC05E526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BF0D150C-C434-49E6-BD56-1D4D7D4E2F9F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{5A1E6414-D714-4A9C-AFA0-BD696AC6CA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2007 (Tasa respuesta: 0,76%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,6 +73,9 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -82,9 +85,6 @@
     <t>100%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -100,21 +100,21 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>81,26%</t>
+  </si>
+  <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
     <t>84,31%</t>
   </si>
   <si>
+    <t>18,74%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
     <t>15,69%</t>
   </si>
   <si>
@@ -154,55 +154,55 @@
     <t>81,31%</t>
   </si>
   <si>
-    <t>28,35%</t>
+    <t>20,0%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>38,32%</t>
+    <t>35,38%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>71,65%</t>
+    <t>80,0%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>61,68%</t>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
   </si>
   <si>
     <t>84,07%</t>
   </si>
   <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>33,26%</t>
   </si>
   <si>
     <t>91,18%</t>
   </si>
   <si>
-    <t>60,98%</t>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>66,74%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>39,02%</t>
+    <t>37,2%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2016 (Tasa respuesta: 0,28%)</t>
@@ -220,7 +220,7 @@
     <t>84,59%</t>
   </si>
   <si>
-    <t>24,61%</t>
+    <t>25,81%</t>
   </si>
   <si>
     <t>33,44%</t>
@@ -229,7 +229,7 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>75,39%</t>
+    <t>74,19%</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC05E93-D8A1-4A03-8FF3-DE24DE0A4F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C6E3C5-4787-47E3-AE37-7A679883C734}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -759,29 +759,29 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>642</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -793,13 +793,13 @@
         <v>642</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -810,30 +810,30 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -857,24 +857,24 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>642</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
         <v>14</v>
       </c>
@@ -891,13 +891,13 @@
         <v>642</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -908,34 +908,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>1392</v>
+        <v>5136</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>5136</v>
+        <v>1392</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -944,13 +944,13 @@
         <v>6528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1010,34 +1010,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5136</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>1392</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>9</v>
-      </c>
-      <c r="I9" s="7">
-        <v>5136</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -1046,13 +1046,13 @@
         <v>6528</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1063,34 +1063,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1661</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>685</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1661</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1099,13 +1099,13 @@
         <v>2346</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1126,7 +1126,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1165,34 +1165,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1661</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>685</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1661</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -1201,13 +1201,13 @@
         <v>2346</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1218,34 +1218,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6797</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2719</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6797</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -1254,13 +1254,13 @@
         <v>9516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1281,7 +1281,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1320,34 +1320,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6797</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="7">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>2719</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7">
-        <v>6797</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
         <v>16</v>
@@ -1356,13 +1356,13 @@
         <v>9516</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1386,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27712EFF-F091-4CAD-885D-7E1B557D72C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BFC2EF-5056-4AD6-B67F-6DC3A6AF3652}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1504,29 +1504,29 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>607</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1538,13 +1538,13 @@
         <v>607</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,30 +1555,30 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -1602,24 +1602,24 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>607</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
         <v>14</v>
       </c>
@@ -1636,13 +1636,13 @@
         <v>607</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,34 +1653,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1708</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2838</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1708</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1695,7 +1695,7 @@
         <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,34 +1704,34 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>652</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1755,34 +1755,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1708</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>3490</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>3</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1708</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1791,13 +1791,13 @@
         <v>5198</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,32 +1808,32 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1589</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1842,13 +1842,13 @@
         <v>1589</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,30 +1859,30 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,9 +1906,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1589</v>
+      </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
@@ -1919,19 +1921,17 @@
         <v>14</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1940,13 +1940,13 @@
         <v>1589</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,31 +1960,31 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>3445</v>
+        <v>3296</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>3296</v>
+        <v>3445</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1999,7 +1999,7 @@
         <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,31 +2008,31 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>652</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>52</v>
@@ -2059,34 +2059,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3296</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="7">
         <v>6</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>4097</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>5</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3296</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -2095,13 +2095,13 @@
         <v>7394</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,7 +2125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B997011-1C2D-42D8-BE79-3F8D6486050F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0FBAFD-1607-46AC-8C4A-6958DBE863C9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2247,39 +2247,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,39 +2292,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,39 +2337,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,31 +2383,31 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1399</v>
+        <v>1173</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1173</v>
+        <v>1399</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2416,13 +2416,13 @@
         <v>2572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,7 +2443,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2485,31 +2485,31 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>1399</v>
+        <v>1173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1173</v>
+        <v>1399</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2518,13 +2518,13 @@
         <v>2572</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,34 +2535,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>663</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2577,7 +2577,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,34 +2586,34 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>589</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2628,7 +2628,7 @@
         <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,31 +2640,31 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>663</v>
+        <v>589</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>589</v>
+        <v>663</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -2673,13 +2673,13 @@
         <v>1252</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,34 +2690,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1173</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2062</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1173</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2732,7 +2732,7 @@
         <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,34 +2741,34 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>589</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2795,31 +2795,31 @@
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>2062</v>
+        <v>1762</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>1762</v>
+        <v>2062</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -2828,13 +2828,13 @@
         <v>3824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
